--- a/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.498377158421506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9596252692575111</v>
+        <v>0.9596252692575108</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5704919428958253</v>
@@ -649,7 +649,7 @@
         <v>0.5883915454326105</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7573360810609957</v>
+        <v>0.7573360810609955</v>
       </c>
     </row>
     <row r="5">
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.013046543586643</v>
+        <v>-0.7998012561703632</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.053444778447252</v>
+        <v>-1.158198574970121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.130008675461729</v>
+        <v>-0.6548196658677579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.107214528032973</v>
+        <v>-2.074565843137292</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5073497280868188</v>
+        <v>-0.4189618017107781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6305043144444545</v>
+        <v>-0.6723940658247899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3778903465339007</v>
+        <v>-0.2662745153809066</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.492965640914261</v>
+        <v>2.358909443498153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.146492133553854</v>
+        <v>1.95741893560125</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.049338117002478</v>
+        <v>4.204984247702146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.527484713796304</v>
+        <v>3.714983574281088</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.170424541376202</v>
+        <v>3.287825032912992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.993499556191479</v>
+        <v>3.451785978360415</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.656346744503729</v>
+        <v>2.685134223055632</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         <v>0.4937910639205301</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4186929536013277</v>
+        <v>0.4186929536013274</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.416746964898271</v>
+        <v>-1.439372306676802</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2105066886239728</v>
+        <v>0.04070323230144811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8649485360326683</v>
+        <v>-1.042734211157494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.908579510846759</v>
+        <v>-1.66089627912565</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5367885454946939</v>
+        <v>-0.5482611869371132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.00309598116072314</v>
+        <v>-0.07099350633404125</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2871880745680839</v>
+        <v>-0.3240183073186123</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5339647539212835</v>
+        <v>-0.4597968477109121</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.799620431963581</v>
+        <v>1.744426007042216</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.570539233058491</v>
+        <v>3.201506847319572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.054350495416107</v>
+        <v>3.056800625911148</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.773484414465299</v>
+        <v>3.741854303979868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.279711236555465</v>
+        <v>1.207314522048213</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.214488862393218</v>
+        <v>3.664908879050182</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.03325973047837</v>
+        <v>2.039963889035509</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.184954479729426</v>
+        <v>3.198875448998011</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>4.178327026819096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.03670871596582505</v>
+        <v>-0.03670871596582574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3878728720506476</v>
@@ -845,7 +845,7 @@
         <v>1.10545271837444</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01185437554993949</v>
+        <v>-0.01185437554993971</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9433972535225503</v>
+        <v>-1.007242218261537</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.319757230286343</v>
+        <v>-2.170248535455056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.80922532126167</v>
+        <v>1.747302201794311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.125932812865012</v>
+        <v>-2.213839197386782</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2267523612141707</v>
+        <v>-0.2626763656159491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4020105107014832</v>
+        <v>-0.3989511288571913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2837404157279647</v>
+        <v>0.2833588124093867</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4801642388600793</v>
+        <v>-0.5040559833371283</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.524531094795283</v>
+        <v>3.471693498024294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.608921335078858</v>
+        <v>2.440803386385402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.618987967100416</v>
+        <v>6.827906270926539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.829018710975124</v>
+        <v>1.727216180116963</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.505346126168436</v>
+        <v>1.430324872354275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7260547350917276</v>
+        <v>0.7261031262737735</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.4049104580529</v>
+        <v>2.425989024361353</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.005395919096127</v>
+        <v>0.8718106187065005</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>6.972043584552527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9697698171458089</v>
+        <v>0.9697698171458096</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.478509827375649</v>
@@ -945,7 +945,7 @@
         <v>1.321601022697703</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2216099371867088</v>
+        <v>0.221609937186709</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9278737710294338</v>
+        <v>1.139019658804621</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1757671141441498</v>
+        <v>0.09644408433691549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.942949518043847</v>
+        <v>3.821840121475626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.397110552401545</v>
+        <v>-1.280175521241256</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2456660018686306</v>
+        <v>0.2353360700564251</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01415682541030486</v>
+        <v>-0.00631217990606302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5970118685489796</v>
+        <v>0.5739307786012194</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2543208920837282</v>
+        <v>-0.2344080511112229</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.749426284214649</v>
+        <v>5.902329512986946</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.689794731583437</v>
+        <v>4.661472410394002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.08790571990212</v>
+        <v>10.24021254875788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.808732761110226</v>
+        <v>2.846656223929386</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.244135102766845</v>
+        <v>4.081614461886492</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.467562680668563</v>
+        <v>2.654388975863862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.454661823808603</v>
+        <v>2.526974501008479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8400935611433948</v>
+        <v>0.9125519536752661</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>11.67307517900068</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.612551972739357</v>
+        <v>2.612551972739359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3820947723787708</v>
@@ -1045,7 +1045,7 @@
         <v>1.646249501015841</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6545813438020079</v>
+        <v>0.6545813438020083</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.604124910736749</v>
+        <v>-1.411894055037419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3857700318139312</v>
+        <v>-0.2512262523518098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.276959125909713</v>
+        <v>7.18094478734862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4558963475663475</v>
+        <v>0.3864638288219675</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2887196651076027</v>
+        <v>-0.2719616896774791</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1057405761286211</v>
+        <v>-0.09803000572808475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7568729659136912</v>
+        <v>0.7528331551154118</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05914904381302413</v>
+        <v>0.06430343335334811</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.607755831534531</v>
+        <v>4.831057809826956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.18249430970244</v>
+        <v>5.403984760180983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.40597363631441</v>
+        <v>16.15529300822745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.841823582610878</v>
+        <v>4.898462717901097</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.874211521694715</v>
+        <v>1.892397402464553</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.503028809120265</v>
+        <v>2.58866946027156</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.906276511469545</v>
+        <v>3.04355217820729</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.728139105380649</v>
+        <v>1.680546997419316</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>12.33266222951719</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.003957288173509</v>
+        <v>3.003957288173507</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6781378668162052</v>
@@ -1145,7 +1145,7 @@
         <v>3.008806954848442</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8582389518571681</v>
+        <v>0.8582389518571677</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.5488302791237848</v>
+        <v>-0.626725638385219</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.38748777532537</v>
+        <v>0.9984089415462848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.948913555674747</v>
+        <v>7.956532987391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8084210098849987</v>
+        <v>0.4304709803094836</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1520214741896153</v>
+        <v>-0.1217165035342133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1523755057430348</v>
+        <v>0.1265518589945399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.369771172367578</v>
+        <v>1.321516862724772</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1176754626656805</v>
+        <v>0.07555164284983755</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.191787447310755</v>
+        <v>6.318513927632802</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.575187390764153</v>
+        <v>8.683676200403701</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.0593830680758</v>
+        <v>17.14116943171246</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.697372131446393</v>
+        <v>5.30517215568408</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.166507662379786</v>
+        <v>2.312867359754023</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.945693232614521</v>
+        <v>3.058813858007617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.124529709644452</v>
+        <v>6.805225609842819</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.467559394487393</v>
+        <v>2.193760211082798</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>8.455899846941877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3696409078518009</v>
+        <v>0.3696409078518003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.007374762932841</v>
@@ -1245,7 +1245,7 @@
         <v>0.9936240411628122</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0687275858531578</v>
+        <v>0.06872758585315766</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2392469436985919</v>
+        <v>-0.4965549074837884</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.881179356537887</v>
+        <v>-2.494420243050115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.2777118347173</v>
+        <v>3.381015044740018</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.708179704178558</v>
+        <v>-2.741320062230253</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1695598757828183</v>
+        <v>-0.1445696249470261</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3980241400503759</v>
+        <v>-0.3856333509115177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2839535685608297</v>
+        <v>0.3107447348085955</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3719961106314469</v>
+        <v>-0.3734254602236728</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.30333357099137</v>
+        <v>7.076815123406849</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.084956967722803</v>
+        <v>5.194955598099441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.01742418371247</v>
+        <v>13.94050585517296</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.946551624297213</v>
+        <v>2.942962329533151</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>4.037023859629602</v>
+        <v>3.837996601437792</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.830567553769719</v>
+        <v>1.861722066072006</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.228432069602362</v>
+        <v>2.270747886533595</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7594769219789334</v>
+        <v>0.7818314716250538</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>6.512788475394355</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.351173749847249</v>
+        <v>1.351173749847247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6525473946274547</v>
@@ -1345,7 +1345,7 @@
         <v>1.44324500065332</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3907037701427299</v>
+        <v>0.3907037701427295</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9177324398196167</v>
+        <v>0.882364268358772</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8996664222852693</v>
+        <v>0.9094910672008575</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.14197188369544</v>
+        <v>5.158177966755315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4596355156337523</v>
+        <v>0.430576288781885</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2848958823470389</v>
+        <v>0.28161663649292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2621334046421169</v>
+        <v>0.24703224274606</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9753069750250133</v>
+        <v>1.024568209349105</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1123329604098811</v>
+        <v>0.1022229245985365</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.757062442776589</v>
+        <v>2.768021211895434</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.794991438384712</v>
+        <v>2.756280328844731</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.915562571946584</v>
+        <v>7.904016835209964</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.235462583439435</v>
+        <v>2.235165824473645</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.155446451255065</v>
+        <v>1.143049023144366</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.067508613936748</v>
+        <v>1.042768932685984</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.930899995968225</v>
+        <v>1.982742389037924</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7431801868351982</v>
+        <v>0.7515666328099027</v>
       </c>
     </row>
     <row r="28">
